--- a/medicine/Sexualité et sexologie/Éditions_Pauvert/Éditions_Pauvert.xlsx
+++ b/medicine/Sexualité et sexologie/Éditions_Pauvert/Éditions_Pauvert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Pauvert</t>
+          <t>Éditions_Pauvert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les éditions Pauvert sont une maison d'édition fondée en 1947 par Jean-Jacques Pauvert. Elles sont également connues sous les noms Société nouvelle des éditions Pauvert et Compagnie Jean-Jacques Pauvert.
-C'est une marque déposée le 26 janvier 2004 par la société Librairie Artheme Fayard[1].
+C'est une marque déposée le 26 janvier 2004 par la société Librairie Artheme Fayard.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Pauvert</t>
+          <t>Éditions_Pauvert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre 1947 et 1972, Jean-Jacques Pauvert entreprend la première publication des Œuvres complètes du Marquis de Sade, édition pour laquelle il est poursuivi pour outrage aux bonnes mœurs et défendu par Me Maurice Garçon[2]. La maison fait également l'objet d'une vingtaine de procès[3],[4].
-Dans les années 1960 et 1970, Jean-François Revel dirige, au sein de la maison, les collections « Libertés[5] » et « Libertés nouvelles[6] ».
-De 1973 à 1979, la maison devient une filiale du groupe Hachette, sous le nom de Société nouvelle des éditions Pauvert[7],[8].
-En 1979, les éditions Pauvert deviennent la Compagnie Jean-Jacques Pauvert[9], dont le principe est la coédition avec d'autres éditeurs : Julliard, Laffont, Ramsay, Grasset,  pour les principaux[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1947 et 1972, Jean-Jacques Pauvert entreprend la première publication des Œuvres complètes du Marquis de Sade, édition pour laquelle il est poursuivi pour outrage aux bonnes mœurs et défendu par Me Maurice Garçon. La maison fait également l'objet d'une vingtaine de procès,.
+Dans les années 1960 et 1970, Jean-François Revel dirige, au sein de la maison, les collections « Libertés » et « Libertés nouvelles ».
+De 1973 à 1979, la maison devient une filiale du groupe Hachette, sous le nom de Société nouvelle des éditions Pauvert,.
+En 1979, les éditions Pauvert deviennent la Compagnie Jean-Jacques Pauvert, dont le principe est la coédition avec d'autres éditeurs : Julliard, Laffont, Ramsay, Grasset,  pour les principaux.
 En 1999, les éditions Pauvert deviennent une filiale de la Librairie Artheme Fayard, sans Jean-Jacques Pauvert qui a gardé son nom complet pour les auteurs qu'il publiera en coédition avec tel ou tel autre éditeur de son choix.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Pauvert</t>
+          <t>Éditions_Pauvert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Auteurs du catalogue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste non exhaustive d'auteurs publiés par les éditions Pauvert :
 Yann Andréa
